--- a/MIC7001/说明书/MIC2416端口说明.V5.2003.1.xlsx
+++ b/MIC7001/说明书/MIC2416端口说明.V5.2003.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28785" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="按端子号排序" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="321">
   <si>
     <t>IMC2416 插座C（左）V5.1031</t>
   </si>
@@ -644,7 +644,25 @@
     <t>26:</t>
   </si>
   <si>
-    <t>Vout</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出</t>
+    </r>
+  </si>
+  <si>
+    <t>电流最大2A</t>
   </si>
   <si>
     <t>27:</t>
@@ -960,6 +978,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>（2）AI/DI/DO_H/PWM，24路</t>
     </r>
     <r>
@@ -1252,9 +1277,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -1319,6 +1344,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1333,15 +1379,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1349,46 +1387,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1409,15 +1408,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1432,6 +1440,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1439,9 +1455,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1455,8 +1479,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1520,19 +1545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1550,7 +1569,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,19 +1659,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1586,43 +1683,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1634,73 +1707,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1851,11 +1876,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1875,24 +1907,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1907,6 +1921,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1915,10 +1940,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1927,133 +1952,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5224,8 +5249,8 @@
   <sheetPr/>
   <dimension ref="B2:W64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -6206,7 +6231,9 @@
       <c r="J29" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="40"/>
+      <c r="K29" s="37" t="s">
+        <v>134</v>
+      </c>
       <c r="M29" s="40" t="s">
         <v>132</v>
       </c>
@@ -6222,7 +6249,7 @@
     </row>
     <row r="30" s="35" customFormat="1" spans="2:22">
       <c r="B30" s="40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
@@ -6236,7 +6263,7 @@
       </c>
       <c r="K30" s="40"/>
       <c r="M30" s="40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N30" s="40"/>
       <c r="O30" s="40"/>
@@ -6252,13 +6279,13 @@
     </row>
     <row r="31" s="35" customFormat="1" spans="2:22">
       <c r="B31" s="40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
@@ -6268,13 +6295,13 @@
       <c r="J31" s="40"/>
       <c r="K31" s="37"/>
       <c r="M31" s="40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N31" s="40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O31" s="40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P31" s="40"/>
       <c r="Q31" s="40"/>
@@ -6286,13 +6313,13 @@
     </row>
     <row r="32" s="35" customFormat="1" spans="2:22">
       <c r="B32" s="40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
@@ -6302,13 +6329,13 @@
       <c r="J32" s="40"/>
       <c r="K32" s="40"/>
       <c r="M32" s="40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N32" s="40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O32" s="40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P32" s="40"/>
       <c r="Q32" s="40"/>
@@ -6320,13 +6347,13 @@
     </row>
     <row r="33" s="35" customFormat="1" spans="2:22">
       <c r="B33" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
@@ -6336,13 +6363,13 @@
       <c r="J33" s="40"/>
       <c r="K33" s="40"/>
       <c r="M33" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N33" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O33" s="40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P33" s="40"/>
       <c r="Q33" s="40"/>
@@ -6354,13 +6381,13 @@
     </row>
     <row r="34" s="35" customFormat="1" spans="2:22">
       <c r="B34" s="40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
@@ -6370,13 +6397,13 @@
       <c r="J34" s="40"/>
       <c r="K34" s="40"/>
       <c r="M34" s="40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N34" s="40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O34" s="40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P34" s="40"/>
       <c r="Q34" s="40"/>
@@ -6388,7 +6415,7 @@
     </row>
     <row r="35" s="35" customFormat="1" spans="2:22">
       <c r="B35" s="40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
@@ -6402,7 +6429,7 @@
       </c>
       <c r="K35" s="40"/>
       <c r="M35" s="40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P35" s="40"/>
       <c r="Q35" s="40"/>
@@ -6416,7 +6443,7 @@
     </row>
     <row r="36" s="35" customFormat="1" spans="2:22">
       <c r="B36" s="40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
@@ -6428,7 +6455,7 @@
       <c r="J36" s="40"/>
       <c r="K36" s="40"/>
       <c r="M36" s="40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N36" s="40"/>
       <c r="O36" s="40"/>
@@ -6438,15 +6465,15 @@
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
       <c r="U36" s="40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="V36" s="37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" s="35" customFormat="1" spans="2:22">
       <c r="B37" s="40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
@@ -6458,21 +6485,21 @@
       <c r="J37" s="40"/>
       <c r="K37" s="40"/>
       <c r="M37" s="40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N37" s="40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O37" s="40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P37" s="40"/>
       <c r="Q37" s="40"/>
       <c r="R37" s="40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S37" s="40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T37" s="40"/>
       <c r="U37" s="40"/>
@@ -6480,7 +6507,7 @@
     </row>
     <row r="38" s="35" customFormat="1" spans="2:22">
       <c r="B38" s="40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="40"/>
@@ -6492,21 +6519,21 @@
       <c r="J38" s="40"/>
       <c r="K38" s="37"/>
       <c r="M38" s="40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N38" s="40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O38" s="40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P38" s="40"/>
       <c r="Q38" s="40"/>
       <c r="R38" s="40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S38" s="40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="T38" s="40"/>
       <c r="U38" s="40"/>
@@ -6547,26 +6574,26 @@
     </row>
     <row r="53" spans="3:3">
       <c r="C53" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" s="35" customFormat="1" spans="7:8">
       <c r="G54" s="47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H54" s="47"/>
     </row>
     <row r="55" s="35" customFormat="1" spans="7:23">
       <c r="G55" s="48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H55" s="49"/>
       <c r="R55" s="48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S55" s="49"/>
       <c r="U55" s="48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V55" s="51"/>
       <c r="W55" s="49"/>
@@ -6581,11 +6608,11 @@
       </c>
       <c r="S56" s="40"/>
       <c r="U56" s="37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="V56" s="40"/>
       <c r="W56" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" s="35" customFormat="1" spans="7:23">
@@ -6593,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="R57" s="50">
         <v>1</v>
@@ -6616,7 +6643,7 @@
         <v>2</v>
       </c>
       <c r="S58" s="40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="U58" s="40"/>
       <c r="V58" s="40"/>
@@ -6627,20 +6654,20 @@
         <v>3</v>
       </c>
       <c r="H59" s="40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R59" s="50">
         <v>3</v>
       </c>
       <c r="S59" s="52" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U59" s="53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="V59" s="52"/>
       <c r="W59" s="53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" s="35" customFormat="1" spans="7:23">
@@ -6648,13 +6675,13 @@
         <v>4</v>
       </c>
       <c r="H60" s="40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R60" s="50">
         <v>4</v>
       </c>
       <c r="S60" s="40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U60" s="40"/>
       <c r="V60" s="40"/>
@@ -6665,20 +6692,20 @@
         <v>5</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R61" s="50">
         <v>5</v>
       </c>
       <c r="S61" s="54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U61" s="55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V61" s="54"/>
       <c r="W61" s="55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" s="35" customFormat="1" spans="7:23">
@@ -6686,13 +6713,13 @@
         <v>6</v>
       </c>
       <c r="H62" s="40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R62" s="50">
         <v>6</v>
       </c>
       <c r="S62" s="40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="U62" s="40"/>
       <c r="V62" s="40"/>
@@ -6703,20 +6730,20 @@
         <v>7</v>
       </c>
       <c r="H63" s="40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R63" s="50">
         <v>7</v>
       </c>
       <c r="S63" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U63" s="57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="V63" s="56"/>
       <c r="W63" s="57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="7:23">
@@ -6724,20 +6751,20 @@
         <v>8</v>
       </c>
       <c r="H64" s="40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R64" s="50">
         <v>8</v>
       </c>
       <c r="S64" s="58" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U64" s="59" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V64" s="58"/>
       <c r="W64" s="59" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -6765,7 +6792,7 @@
   <sheetPr/>
   <dimension ref="B1:AE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
@@ -6783,7 +6810,7 @@
   <sheetData>
     <row r="1" spans="2:20">
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -6805,12 +6832,12 @@
     </row>
     <row r="2" spans="30:30">
       <c r="AD2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:31">
       <c r="B3" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -6831,80 +6858,80 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="AD3" s="33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AE3" s="33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:31">
       <c r="B4" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AD4" s="33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AE4" s="33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:31">
       <c r="B5" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -6961,15 +6988,15 @@
         <v>17</v>
       </c>
       <c r="AD5" s="33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE5" s="33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:31">
       <c r="B6" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -7026,15 +7053,15 @@
         <v>17</v>
       </c>
       <c r="AD6" s="33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AE6" s="33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="2:31">
       <c r="B7" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
@@ -7059,7 +7086,7 @@
     </row>
     <row r="8" spans="3:31">
       <c r="C8" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -7087,7 +7114,7 @@
     </row>
     <row r="10" spans="2:31">
       <c r="B10" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -7118,86 +7145,86 @@
     </row>
     <row r="11" spans="2:31">
       <c r="B11" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AD11" s="33"/>
       <c r="AE11" s="33"/>
     </row>
     <row r="12" spans="2:31">
       <c r="B12" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C12" s="4">
         <v>18</v>
@@ -7272,7 +7299,7 @@
     </row>
     <row r="13" spans="2:31">
       <c r="B13" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C13" s="11">
         <v>18</v>
@@ -7347,7 +7374,7 @@
     </row>
     <row r="14" spans="2:31">
       <c r="B14" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -7410,7 +7437,7 @@
     </row>
     <row r="15" spans="2:31">
       <c r="B15" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -7473,7 +7500,7 @@
     </row>
     <row r="16" spans="2:31">
       <c r="B16" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -7512,7 +7539,7 @@
     </row>
     <row r="19" spans="2:31">
       <c r="B19" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -7520,7 +7547,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="13"/>
       <c r="H19" s="14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -7529,14 +7556,14 @@
       <c r="M19" s="9"/>
       <c r="N19" s="25"/>
       <c r="P19" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="25"/>
       <c r="V19" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -7550,71 +7577,71 @@
     </row>
     <row r="20" spans="2:29">
       <c r="B20" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="27"/>
       <c r="K20" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="26"/>
       <c r="R20" s="27"/>
       <c r="S20" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AC20" s="20"/>
     </row>
     <row r="21" spans="2:29">
       <c r="B21" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -7644,7 +7671,7 @@
     </row>
     <row r="22" spans="2:29">
       <c r="B22" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -7692,7 +7719,7 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="V23" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
@@ -7709,7 +7736,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="17"/>
       <c r="H24" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -7718,7 +7745,7 @@
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="P24" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
@@ -7727,7 +7754,7 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -7747,12 +7774,12 @@
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -7763,68 +7790,68 @@
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K29" s="26"/>
       <c r="L29" s="27"/>
       <c r="M29" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" s="28" t="s">
         <v>282</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="J30" s="28" t="s">
-        <v>281</v>
       </c>
       <c r="K30" s="29"/>
       <c r="L30" s="30"/>
       <c r="M30" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N30" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P30" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="J31" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
@@ -7835,14 +7862,14 @@
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -7853,67 +7880,67 @@
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K34" s="26"/>
       <c r="L34" s="27"/>
       <c r="M34" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="2:16">
       <c r="B35" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K35" s="29"/>
       <c r="L35" s="30"/>
       <c r="M35" s="31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N35" s="31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O35" s="31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P35" s="31" t="s">
         <v>88</v>
@@ -7921,14 +7948,14 @@
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="J36" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K36" s="32"/>
       <c r="L36" s="32"/>
@@ -7939,7 +7966,7 @@
     </row>
     <row r="38" spans="2:20">
       <c r="B38" s="14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -7962,65 +7989,65 @@
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K39" s="27"/>
       <c r="L39" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M39" s="27"/>
       <c r="N39" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>20</v>
@@ -8033,11 +8060,11 @@
       <c r="H40" s="23"/>
       <c r="I40" s="24"/>
       <c r="J40" s="18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K40" s="24"/>
       <c r="L40" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M40" s="24"/>
       <c r="N40" s="18" t="s">
@@ -8052,7 +8079,7 @@
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
